--- a/HRMS/RegStudent.xlsx
+++ b/HRMS/RegStudent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="147">
   <si>
     <t>Table Name - RegStudent</t>
   </si>
@@ -452,13 +452,16 @@
   </si>
   <si>
     <t>For IsSingleChild Check.</t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +481,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -521,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,12 +543,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -545,6 +550,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,32 +880,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -929,7 +943,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -946,7 +960,7 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>93</v>
       </c>
       <c r="J6" s="5"/>
@@ -964,7 +978,7 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>94</v>
       </c>
       <c r="J7" s="5"/>
@@ -983,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1001,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1019,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1037,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1055,7 +1069,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1073,7 +1087,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1091,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1109,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1127,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1145,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1163,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1171,7 +1185,7 @@
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1181,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1189,7 +1203,7 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1199,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1207,7 +1221,7 @@
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1217,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1225,7 +1239,7 @@
       <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1235,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1243,7 +1257,7 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1253,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1261,7 +1275,7 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1271,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1289,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1307,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1325,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1343,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1361,7 +1375,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1379,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1397,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1415,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1433,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1451,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1469,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1487,7 +1501,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1505,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1523,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1541,7 +1555,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1559,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1577,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1595,7 +1609,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1613,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1631,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1649,7 +1663,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1667,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1685,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1703,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1721,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1739,7 +1753,7 @@
         <v>14</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1757,7 +1771,7 @@
         <v>14</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1775,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1793,7 +1807,7 @@
         <v>14</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1811,7 +1825,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1829,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1847,7 +1861,7 @@
         <v>16</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1865,7 +1879,7 @@
         <v>16</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1883,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1891,7 +1905,7 @@
       <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -1901,7 +1915,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1909,7 +1923,7 @@
       <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -1919,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1937,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1955,7 +1969,7 @@
         <v>14</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1973,19 +1987,19 @@
         <v>14</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>60</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="A64" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -2368,9 +2382,10 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A64:F64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/RegStudent.xlsx
+++ b/HRMS/RegStudent.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name - RegStudent</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में पंजीकृत छात्रों का विवरण है।</t>
   </si>
 </sst>
 </file>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -909,22 +909,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,19 +932,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -952,16 +952,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -970,16 +970,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -988,17 +988,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1006,17 +1006,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1024,17 +1024,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1042,17 +1042,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1060,17 +1060,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,17 +1078,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1096,17 +1096,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,17 +1114,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,17 +1132,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,17 +1150,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,17 +1168,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1186,17 +1186,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,17 +1204,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,17 +1222,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1240,17 +1240,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,17 +1258,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1276,17 +1276,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,17 +1294,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,17 +1312,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,17 +1330,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1348,17 +1348,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,17 +1366,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,17 +1384,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,17 +1402,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,17 +1420,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,17 +1438,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,17 +1456,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,17 +1474,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,17 +1492,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,17 +1510,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,17 +1528,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,17 +1546,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1564,17 +1564,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,17 +1582,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,17 +1600,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,17 +1618,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1636,17 +1636,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,17 +1654,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,17 +1672,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,17 +1690,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,17 +1708,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,17 +1726,17 @@
         <v>45</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,17 +1744,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,17 +1762,17 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,17 +1780,17 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,17 +1798,17 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,17 +1816,17 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,17 +1834,17 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,17 +1852,17 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,17 +1870,17 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="D57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,17 +1888,17 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,17 +1906,17 @@
         <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,17 +1924,17 @@
         <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,17 +1942,17 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,17 +1960,17 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,22 +1978,22 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
